--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dkk4-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dkk4-Lrp6.xlsx
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.02506566666666667</v>
+        <v>0.092262</v>
       </c>
       <c r="H2">
-        <v>0.075197</v>
+        <v>0.276786</v>
       </c>
       <c r="I2">
-        <v>0.359854521092049</v>
+        <v>0.674176843971804</v>
       </c>
       <c r="J2">
-        <v>0.3598545210920489</v>
+        <v>0.6741768439718039</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.18802033333333</v>
+        <v>9.841031333333333</v>
       </c>
       <c r="N2">
-        <v>39.564061</v>
+        <v>29.523094</v>
       </c>
       <c r="O2">
-        <v>0.1333092666742473</v>
+        <v>0.1083017349730097</v>
       </c>
       <c r="P2">
-        <v>0.1413743409290003</v>
+        <v>0.1125970533891552</v>
       </c>
       <c r="Q2">
-        <v>0.3305665216685555</v>
+        <v>0.9079532328759999</v>
       </c>
       <c r="R2">
-        <v>2.975098695017</v>
+        <v>8.171579095883999</v>
       </c>
       <c r="S2">
-        <v>0.04797194231619348</v>
+        <v>0.07301452188077442</v>
       </c>
       <c r="T2">
-        <v>0.05087419574970944</v>
+        <v>0.07591032609442534</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.02506566666666667</v>
+        <v>0.092262</v>
       </c>
       <c r="H3">
-        <v>0.075197</v>
+        <v>0.276786</v>
       </c>
       <c r="I3">
-        <v>0.359854521092049</v>
+        <v>0.674176843971804</v>
       </c>
       <c r="J3">
-        <v>0.3598545210920489</v>
+        <v>0.6741768439718039</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>95.53539599999999</v>
       </c>
       <c r="O3">
-        <v>0.3219020813407859</v>
+        <v>0.3504595127507141</v>
       </c>
       <c r="P3">
-        <v>0.3413768279472386</v>
+        <v>0.3643589687437936</v>
       </c>
       <c r="Q3">
-        <v>0.7982194636679999</v>
+        <v>2.938095568584</v>
       </c>
       <c r="R3">
-        <v>7.183975173012</v>
+        <v>26.442860117256</v>
       </c>
       <c r="S3">
-        <v>0.1158379193194223</v>
+        <v>0.2362716882461726</v>
       </c>
       <c r="T3">
-        <v>0.1228459949328763</v>
+        <v>0.2456423796205119</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.02506566666666667</v>
+        <v>0.092262</v>
       </c>
       <c r="H4">
-        <v>0.075197</v>
+        <v>0.276786</v>
       </c>
       <c r="I4">
-        <v>0.359854521092049</v>
+        <v>0.674176843971804</v>
       </c>
       <c r="J4">
-        <v>0.3598545210920489</v>
+        <v>0.6741768439718039</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.06250533333333</v>
+        <v>16.16670066666667</v>
       </c>
       <c r="N4">
-        <v>51.187516</v>
+        <v>48.500102</v>
       </c>
       <c r="O4">
-        <v>0.1724739586473769</v>
+        <v>0.1779164877830196</v>
       </c>
       <c r="P4">
-        <v>0.1829084566999494</v>
+        <v>0.1849727733236046</v>
       </c>
       <c r="Q4">
-        <v>0.4276830711835556</v>
+        <v>1.491572136908</v>
       </c>
       <c r="R4">
-        <v>3.849147640652</v>
+        <v>13.424149232172</v>
       </c>
       <c r="S4">
-        <v>0.06206553378990168</v>
+        <v>0.1199471762241041</v>
       </c>
       <c r="T4">
-        <v>0.06582043508944607</v>
+        <v>0.1247043605400196</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.02506566666666667</v>
+        <v>0.092262</v>
       </c>
       <c r="H5">
-        <v>0.075197</v>
+        <v>0.276786</v>
       </c>
       <c r="I5">
-        <v>0.359854521092049</v>
+        <v>0.674176843971804</v>
       </c>
       <c r="J5">
-        <v>0.3598545210920489</v>
+        <v>0.6741768439718039</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.930832</v>
+        <v>10.399077</v>
       </c>
       <c r="N5">
-        <v>33.861664</v>
+        <v>20.798154</v>
       </c>
       <c r="O5">
-        <v>0.171142957097216</v>
+        <v>0.1144430947397913</v>
       </c>
       <c r="P5">
-        <v>0.1209979539451033</v>
+        <v>0.07932132236322763</v>
       </c>
       <c r="Q5">
-        <v>0.4243825913013333</v>
+        <v>0.959439642174</v>
       </c>
       <c r="R5">
-        <v>2.546295547808</v>
+        <v>5.756637853043999</v>
       </c>
       <c r="S5">
-        <v>0.06158656686449575</v>
+        <v>0.07715488442603863</v>
       </c>
       <c r="T5">
-        <v>0.04354166077003292</v>
+        <v>0.05347659877051087</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.02506566666666667</v>
+        <v>0.092262</v>
       </c>
       <c r="H6">
-        <v>0.075197</v>
+        <v>0.276786</v>
       </c>
       <c r="I6">
-        <v>0.359854521092049</v>
+        <v>0.674176843971804</v>
       </c>
       <c r="J6">
-        <v>0.3598545210920489</v>
+        <v>0.6741768439718039</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.90151933333334</v>
+        <v>22.614852</v>
       </c>
       <c r="N6">
-        <v>59.70455800000001</v>
+        <v>67.84455600000001</v>
       </c>
       <c r="O6">
-        <v>0.2011717362403739</v>
+        <v>0.2488791697534654</v>
       </c>
       <c r="P6">
-        <v>0.2133424204787085</v>
+        <v>0.258749882180219</v>
       </c>
       <c r="Q6">
-        <v>0.4988448497695556</v>
+        <v>2.086491475224</v>
       </c>
       <c r="R6">
-        <v>4.489603647926001</v>
+        <v>18.778423277016</v>
       </c>
       <c r="S6">
-        <v>0.07239255880203574</v>
+        <v>0.1677885731947142</v>
       </c>
       <c r="T6">
-        <v>0.07677223454998418</v>
+        <v>0.1744431789463361</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.133768</v>
       </c>
       <c r="I7">
-        <v>0.6401454789079511</v>
+        <v>0.3258231560281961</v>
       </c>
       <c r="J7">
-        <v>0.640145478907951</v>
+        <v>0.3258231560281961</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.18802033333333</v>
+        <v>9.841031333333333</v>
       </c>
       <c r="N7">
-        <v>39.564061</v>
+        <v>29.523094</v>
       </c>
       <c r="O7">
-        <v>0.1333092666742473</v>
+        <v>0.1083017349730097</v>
       </c>
       <c r="P7">
-        <v>0.1413743409290003</v>
+        <v>0.1125970533891552</v>
       </c>
       <c r="Q7">
-        <v>0.5880450346497778</v>
+        <v>0.4388050264657778</v>
       </c>
       <c r="R7">
-        <v>5.292405311847999</v>
+        <v>3.949245238192</v>
       </c>
       <c r="S7">
-        <v>0.08533732435805377</v>
+        <v>0.03528721309223528</v>
       </c>
       <c r="T7">
-        <v>0.09050014517929082</v>
+        <v>0.03668672729472983</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.133768</v>
       </c>
       <c r="I8">
-        <v>0.6401454789079511</v>
+        <v>0.3258231560281961</v>
       </c>
       <c r="J8">
-        <v>0.640145478907951</v>
+        <v>0.3258231560281961</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>95.53539599999999</v>
       </c>
       <c r="O8">
-        <v>0.3219020813407859</v>
+        <v>0.3504595127507141</v>
       </c>
       <c r="P8">
-        <v>0.3413768279472386</v>
+        <v>0.3643589687437936</v>
       </c>
       <c r="Q8">
         <v>1.419953205792</v>
@@ -948,10 +948,10 @@
         <v>12.779578852128</v>
       </c>
       <c r="S8">
-        <v>0.2060641620213636</v>
+        <v>0.1141878245045415</v>
       </c>
       <c r="T8">
-        <v>0.2185308330143622</v>
+        <v>0.1187165891232817</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.133768</v>
       </c>
       <c r="I9">
-        <v>0.6401454789079511</v>
+        <v>0.3258231560281961</v>
       </c>
       <c r="J9">
-        <v>0.640145478907951</v>
+        <v>0.3258231560281961</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.06250533333333</v>
+        <v>16.16670066666667</v>
       </c>
       <c r="N9">
-        <v>51.187516</v>
+        <v>48.500102</v>
       </c>
       <c r="O9">
-        <v>0.1724739586473769</v>
+        <v>0.1779164877830196</v>
       </c>
       <c r="P9">
-        <v>0.1829084566999494</v>
+        <v>0.1849727733236046</v>
       </c>
       <c r="Q9">
-        <v>0.7608057378097779</v>
+        <v>0.7208624049262222</v>
       </c>
       <c r="R9">
-        <v>6.847251640288</v>
+        <v>6.487761644336</v>
       </c>
       <c r="S9">
-        <v>0.1104084248574753</v>
+        <v>0.05796931155891542</v>
       </c>
       <c r="T9">
-        <v>0.1170880216105034</v>
+        <v>0.06026841278358497</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.133768</v>
       </c>
       <c r="I10">
-        <v>0.6401454789079511</v>
+        <v>0.3258231560281961</v>
       </c>
       <c r="J10">
-        <v>0.640145478907951</v>
+        <v>0.3258231560281961</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.930832</v>
+        <v>10.399077</v>
       </c>
       <c r="N10">
-        <v>33.861664</v>
+        <v>20.798154</v>
       </c>
       <c r="O10">
-        <v>0.171142957097216</v>
+        <v>0.1144430947397913</v>
       </c>
       <c r="P10">
-        <v>0.1209979539451033</v>
+        <v>0.07932132236322763</v>
       </c>
       <c r="Q10">
-        <v>0.7549345116586667</v>
+        <v>0.463687910712</v>
       </c>
       <c r="R10">
-        <v>4.529607069951999</v>
+        <v>2.782127464272</v>
       </c>
       <c r="S10">
-        <v>0.1095563902327203</v>
+        <v>0.03728821031375263</v>
       </c>
       <c r="T10">
-        <v>0.07745629317507033</v>
+        <v>0.02584472359271675</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.133768</v>
       </c>
       <c r="I11">
-        <v>0.6401454789079511</v>
+        <v>0.3258231560281961</v>
       </c>
       <c r="J11">
-        <v>0.640145478907951</v>
+        <v>0.3258231560281961</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.90151933333334</v>
+        <v>22.614852</v>
       </c>
       <c r="N11">
-        <v>59.70455800000001</v>
+        <v>67.84455600000001</v>
       </c>
       <c r="O11">
-        <v>0.2011717362403739</v>
+        <v>0.2488791697534654</v>
       </c>
       <c r="P11">
-        <v>0.2133424204787085</v>
+        <v>0.258749882180219</v>
       </c>
       <c r="Q11">
-        <v>0.8873954793937779</v>
+        <v>1.008381174112</v>
       </c>
       <c r="R11">
-        <v>7.986559314544</v>
+        <v>9.075430567008002</v>
       </c>
       <c r="S11">
-        <v>0.1287791774383382</v>
+        <v>0.08109059655875125</v>
       </c>
       <c r="T11">
-        <v>0.1365701859287243</v>
+        <v>0.08430670323388284</v>
       </c>
     </row>
   </sheetData>
